--- a/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
+++ b/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
@@ -16292,7 +16292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16318,37 +16318,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>first_d_cov</t>
+          <t>HPV_PRIM_DELIV_STRATEGY</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>last_d_cov</t>
+          <t>HPV_INT_DOSES</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>HPV1_COVERAGELASTYEAR</t>
+          <t>Gavi Status</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>HPV_PRIM_DELIV_STRATEGY</t>
+          <t>HPV_NATIONAL_SCHEDULE</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>HPV_INT_DOSES</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Gavi Status</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>HPV_NATIONAL_SCHEDULE</t>
+          <t>LAST_DOSE_COV</t>
         </is>
       </c>
     </row>
@@ -16366,34 +16356,28 @@
           <t>Albania</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.43</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H2" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -16410,34 +16394,28 @@
           <t>Andorra</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>83</v>
-      </c>
-      <c r="E3" t="n">
-        <v>83</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.92</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H3" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -16454,30 +16432,28 @@
           <t>Antigua and Barbuda</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.02</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -16494,34 +16470,28 @@
           <t>Argentina</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>72</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.55</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Varies by region/province</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Varies by region/province</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H5" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -16538,34 +16508,28 @@
           <t>Armenia</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>43</v>
-      </c>
-      <c r="E6" t="n">
-        <v>41</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.38</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H6" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -16582,34 +16546,28 @@
           <t>Australia</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>83</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.73</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -16626,34 +16584,28 @@
           <t>Austria</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>63</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.53</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H8" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -16671,24 +16623,22 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Not yet introduced</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16704,30 +16654,24 @@
           <t>Bahamas</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -16745,26 +16689,22 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16780,30 +16720,24 @@
           <t>Bangladesh</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Gavi</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H12" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -16820,34 +16754,28 @@
           <t>Barbados</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>59</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.43</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H13" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -16864,29 +16792,27 @@
           <t>Belarus</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16902,34 +16828,28 @@
           <t>Belgium</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>80</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>72</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="16">
@@ -16946,34 +16866,28 @@
           <t>Belize</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>67</v>
-      </c>
-      <c r="E16" t="n">
-        <v>67</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.62</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H16" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -16990,34 +16904,28 @@
           <t>Bhutan</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>93</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>92</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -17034,34 +16942,28 @@
           <t>Bolivia (Plurinational State of)</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>79</v>
-      </c>
-      <c r="E18" t="n">
-        <v>69</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.78</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H18" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -17078,34 +16980,28 @@
           <t>Bosnia and Herzegovina</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>7</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.03</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -17122,34 +17018,28 @@
           <t>Botswana</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>55</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.93</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H20" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -17166,34 +17056,28 @@
           <t>Brazil</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>90</v>
-      </c>
-      <c r="E21" t="n">
-        <v>75</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.79</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H21" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -17210,34 +17094,28 @@
           <t>Brunei Darussalam</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>89</v>
-      </c>
-      <c r="E22" t="n">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>88</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="23">
@@ -17254,34 +17132,28 @@
           <t>Bulgaria</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.11</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -17298,30 +17170,28 @@
           <t>Burkina Faso</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="n">
-        <v>0.99</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H24" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="25">
@@ -17339,25 +17209,23 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H25" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="26">
@@ -17375,25 +17243,23 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Gavi</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H26" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -17410,30 +17276,28 @@
           <t>Cameroon</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>0.36</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H27" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -17450,34 +17314,28 @@
           <t>Canada</t>
         </is>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>86</v>
-      </c>
-      <c r="E28" t="n">
-        <v>86</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="29">
@@ -17494,34 +17352,28 @@
           <t>Chile</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>98</v>
-      </c>
-      <c r="E29" t="n">
-        <v>89</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9399999999999999</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H29" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -17538,34 +17390,28 @@
           <t>Colombia</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>63</v>
-      </c>
-      <c r="E30" t="n">
-        <v>63</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.6</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H30" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -17582,34 +17428,28 @@
           <t>Cook Islands</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>97</v>
-      </c>
-      <c r="E31" t="n">
-        <v>82</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.77</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H31" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -17626,34 +17466,28 @@
           <t>Costa Rica</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>98</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>84</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="33">
@@ -17670,30 +17504,28 @@
           <t>Côte d'Ivoire</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>0.61</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H33" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -17710,34 +17542,28 @@
           <t>Croatia</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>53</v>
-      </c>
-      <c r="E34" t="n">
-        <v>53</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="35">
@@ -17754,34 +17580,28 @@
           <t>Cyprus</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>73</v>
-      </c>
-      <c r="E35" t="n">
-        <v>67</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.83</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H35" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -17798,34 +17618,28 @@
           <t>Czechia</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>69</v>
-      </c>
-      <c r="E36" t="n">
-        <v>69</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.75</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H36" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -17842,34 +17656,28 @@
           <t>Denmark</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>91</v>
-      </c>
-      <c r="E37" t="n">
-        <v>82</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.89</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H37" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -17886,34 +17694,28 @@
           <t>Dominica</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>87</v>
-      </c>
-      <c r="E38" t="n">
-        <v>75</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.77</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H38" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -17930,34 +17732,28 @@
           <t>Dominican Republic</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>80</v>
-      </c>
-      <c r="E39" t="n">
-        <v>80</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.45</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H39" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="40">
@@ -17974,34 +17770,28 @@
           <t>Ecuador</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>98</v>
-      </c>
-      <c r="E40" t="n">
-        <v>72</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.89</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H40" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -18018,30 +17808,28 @@
           <t>El Salvador</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>0.86</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H41" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="42">
@@ -18058,30 +17846,24 @@
           <t>Eritrea</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>88</v>
-      </c>
-      <c r="E42" t="n">
-        <v>99</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Gavi</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H42" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="43">
@@ -18098,34 +17880,28 @@
           <t>Estonia</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
         <v>63</v>
-      </c>
-      <c r="E43" t="n">
-        <v>63</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="44">
@@ -18142,34 +17918,28 @@
           <t>Eswatini</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>42</v>
-      </c>
-      <c r="E44" t="n">
-        <v>42</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.3</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H44" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -18186,34 +17956,28 @@
           <t>Ethiopia</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>60</v>
-      </c>
-      <c r="E45" t="n">
-        <v>29</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.58</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H45" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="46">
@@ -18230,34 +17994,28 @@
           <t>Fiji</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>64</v>
-      </c>
-      <c r="E46" t="n">
-        <v>53</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.89</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H46" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="47">
@@ -18274,34 +18032,28 @@
           <t>Finland</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>82</v>
-      </c>
-      <c r="E47" t="n">
-        <v>73</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.71</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H47" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="48">
@@ -18318,34 +18070,28 @@
           <t>France</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>48</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
         <v>45</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="49">
@@ -18362,34 +18108,28 @@
           <t>Gambia</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>74</v>
-      </c>
-      <c r="E49" t="n">
-        <v>74</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.15</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50">
@@ -18406,34 +18146,28 @@
           <t>Georgia</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>37</v>
-      </c>
-      <c r="E50" t="n">
-        <v>37</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.32</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H50" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -18450,34 +18184,28 @@
           <t>Germany</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>68</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>55</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="52">
@@ -18494,31 +18222,27 @@
           <t>Greece</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="n">
-        <v>0</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -18534,30 +18258,28 @@
           <t>Grenada</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="n">
-        <v>0.05</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -18574,34 +18296,28 @@
           <t>Guatemala</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>91</v>
-      </c>
-      <c r="E54" t="n">
-        <v>91</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.57</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H54" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -18618,34 +18334,28 @@
           <t>Guyana</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>80</v>
-      </c>
-      <c r="E55" t="n">
-        <v>48</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.71</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H55" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="56">
@@ -18662,34 +18372,28 @@
           <t>Honduras</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>70</v>
-      </c>
-      <c r="E56" t="n">
-        <v>70</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.72</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H56" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="57">
@@ -18706,34 +18410,28 @@
           <t>Hungary</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>76</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
         <v>75</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="58">
@@ -18750,34 +18448,28 @@
           <t>Iceland</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>96</v>
-      </c>
-      <c r="E58" t="n">
-        <v>93</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.93</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H58" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="59">
@@ -18794,34 +18486,28 @@
           <t>Indonesia</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>5</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.8</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H59" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -18838,34 +18524,28 @@
           <t>Ireland</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>74</v>
-      </c>
-      <c r="E60" t="n">
-        <v>74</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.73</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H60" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="61">
@@ -18882,34 +18562,28 @@
           <t>Israel</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>55</v>
-      </c>
-      <c r="E61" t="n">
-        <v>55</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.51</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H61" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="62">
@@ -18926,34 +18600,28 @@
           <t>Italy</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>68</v>
-      </c>
-      <c r="E62" t="n">
-        <v>55</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.66</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Varies by region/province</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Varies by region/province</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63">
@@ -18970,34 +18638,28 @@
           <t>Jamaica</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.07000000000000001</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="64">
@@ -19014,34 +18676,28 @@
           <t>Japan</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>36</v>
-      </c>
-      <c r="E64" t="n">
-        <v>22</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.39</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -19058,31 +18714,27 @@
           <t>Kazakhstan</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>0.38</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19098,34 +18750,28 @@
           <t>Kenya</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>29</v>
-      </c>
-      <c r="E66" t="n">
-        <v>17</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.79</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H66" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="67">
@@ -19142,30 +18788,24 @@
           <t>Kiribati</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>55</v>
-      </c>
-      <c r="E67" t="n">
-        <v>55</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H67" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="68">
@@ -19182,31 +18822,27 @@
           <t>Kuwait</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="n">
-        <v>0</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19222,34 +18858,28 @@
           <t>Kyrgyzstan</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>58</v>
-      </c>
-      <c r="E69" t="n">
-        <v>48</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.88</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H69" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="70">
@@ -19266,34 +18896,28 @@
           <t>Lao People's Democratic Republic</t>
         </is>
       </c>
-      <c r="D70" t="n">
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
         <v>95</v>
-      </c>
-      <c r="E70" t="n">
-        <v>63</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="71">
@@ -19310,34 +18934,28 @@
           <t>Latvia</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>58</v>
-      </c>
-      <c r="E71" t="n">
-        <v>54</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.64</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H71" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="72">
@@ -19354,30 +18972,24 @@
           <t>Lesotho</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>93</v>
-      </c>
-      <c r="E72" t="n">
-        <v>69</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Gavi</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H72" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="73">
@@ -19394,30 +19006,28 @@
           <t>Liberia</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="n">
-        <v>0.71</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H73" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="74">
@@ -19436,20 +19046,18 @@
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75">
@@ -19466,34 +19074,28 @@
           <t>Lithuania</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>82</v>
-      </c>
-      <c r="E75" t="n">
-        <v>74</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.57</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76">
@@ -19510,34 +19112,28 @@
           <t>Luxembourg</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>87</v>
-      </c>
-      <c r="E76" t="n">
-        <v>82</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.87</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H76" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="77">
@@ -19554,30 +19150,28 @@
           <t>Malawi</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="n">
-        <v>0.54</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H77" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="78">
@@ -19594,34 +19188,28 @@
           <t>Malaysia</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>77</v>
-      </c>
-      <c r="E78" t="n">
-        <v>77</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.78</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H78" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="79">
@@ -19638,34 +19226,28 @@
           <t>Maldives</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>90</v>
-      </c>
-      <c r="E79" t="n">
-        <v>66</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.75</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H79" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="80">
@@ -19682,30 +19264,28 @@
           <t>Mali</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="n">
-        <v>0.15</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H80" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -19722,34 +19302,28 @@
           <t>Malta</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>90</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
         <v>80</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="82">
@@ -19766,34 +19340,28 @@
           <t>Marshall Islands</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>71</v>
-      </c>
-      <c r="E82" t="n">
-        <v>54</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.7</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H82" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="83">
@@ -19810,34 +19378,28 @@
           <t>Mauritania</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>55</v>
-      </c>
-      <c r="E83" t="n">
-        <v>26</v>
-      </c>
-      <c r="F83" t="n">
-        <v>0.51</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H83" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="84">
@@ -19854,34 +19416,28 @@
           <t>Mauritius</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>83</v>
-      </c>
-      <c r="E84" t="n">
-        <v>78</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.92</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H84" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="85">
@@ -19898,34 +19454,28 @@
           <t>Mexico</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>80</v>
-      </c>
-      <c r="E85" t="n">
-        <v>80</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.82</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H85" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="86">
@@ -19942,34 +19492,28 @@
           <t>Micronesia (Federated States of)</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>60</v>
-      </c>
-      <c r="E86" t="n">
-        <v>48</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.7</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H86" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="87">
@@ -19986,31 +19530,27 @@
           <t>Monaco</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
-        <v>0.16</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -20026,30 +19566,28 @@
           <t>Mongolia</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
-        <v>0.25</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H88" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="89">
@@ -20066,34 +19604,28 @@
           <t>Montenegro</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>23</v>
-      </c>
-      <c r="E89" t="n">
-        <v>23</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.05</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90">
@@ -20111,25 +19643,23 @@
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -20146,30 +19676,28 @@
           <t>Mozambique</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
-        <v>0.89</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H91" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="92">
@@ -20186,30 +19714,28 @@
           <t>Myanmar</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="n">
-        <v>0.83</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H92" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="93">
@@ -20227,25 +19753,23 @@
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="94">
@@ -20262,34 +19786,28 @@
           <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>65</v>
-      </c>
-      <c r="E94" t="n">
-        <v>65</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.63</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95">
@@ -20306,34 +19824,28 @@
           <t>New Zealand</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>80</v>
-      </c>
-      <c r="E95" t="n">
-        <v>54</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.53</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H95" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="96">
@@ -20350,34 +19862,28 @@
           <t>Nigeria</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>30</v>
-      </c>
-      <c r="E96" t="n">
-        <v>30</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0.6</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H96" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="97">
@@ -20394,34 +19900,28 @@
           <t>Niue</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>72</v>
-      </c>
-      <c r="E97" t="n">
-        <v>72</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.99</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H97" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="98">
@@ -20438,34 +19938,28 @@
           <t>North Macedonia</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>32</v>
-      </c>
-      <c r="E98" t="n">
-        <v>21</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.58</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99">
@@ -20482,34 +19976,28 @@
           <t>Norway</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>92</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
         <v>91</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="100">
@@ -20526,34 +20014,28 @@
           <t>Palau</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>58</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
         <v>43</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="101">
@@ -20570,34 +20052,28 @@
           <t>Panama</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>85</v>
-      </c>
-      <c r="E101" t="n">
-        <v>73</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.71</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H101" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="102">
@@ -20614,34 +20090,28 @@
           <t>Paraguay</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>83</v>
-      </c>
-      <c r="E102" t="n">
-        <v>73</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.47</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H102" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="103">
@@ -20658,34 +20128,28 @@
           <t>Peru</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>99</v>
-      </c>
-      <c r="E103" t="n">
-        <v>99</v>
-      </c>
-      <c r="F103" t="n">
-        <v>0.97</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H103" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="104">
@@ -20702,34 +20166,28 @@
           <t>Philippines</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>14</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.5</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
           <t>Yes (Partial)</t>
         </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
@@ -20746,30 +20204,28 @@
           <t>Poland</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
-        <v>0.1</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H105" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="106">
@@ -20786,34 +20242,28 @@
           <t>Portugal</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>97</v>
-      </c>
-      <c r="E106" t="n">
-        <v>96</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.91</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H106" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="107">
@@ -20831,25 +20281,23 @@
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -20866,34 +20314,28 @@
           <t>Republic of Korea</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>83</v>
-      </c>
-      <c r="E108" t="n">
-        <v>65</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.85</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H108" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="109">
@@ -20910,34 +20352,28 @@
           <t>Republic of Moldova</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>55</v>
-      </c>
-      <c r="E109" t="n">
-        <v>34</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.52</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
           <t>Yes (Partial)</t>
         </is>
+      </c>
+      <c r="H109" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="110">
@@ -20954,34 +20390,28 @@
           <t>Romania</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>23</v>
-      </c>
-      <c r="E110" t="n">
-        <v>23</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.18</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H110" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="111">
@@ -20999,24 +20429,22 @@
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>Not yet introduced</t>
         </is>
       </c>
-      <c r="I111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -21032,34 +20460,28 @@
           <t>Rwanda</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>78</v>
-      </c>
-      <c r="E112" t="n">
-        <v>73</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.77</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H112" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="113">
@@ -21076,34 +20498,28 @@
           <t>Saint Kitts and Nevis</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>94</v>
-      </c>
-      <c r="E113" t="n">
-        <v>74</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0.78</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H113" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="114">
@@ -21120,34 +20536,28 @@
           <t>Saint Lucia</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>52</v>
-      </c>
-      <c r="E114" t="n">
-        <v>52</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0.71</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H114" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="115">
@@ -21164,34 +20574,28 @@
           <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>3</v>
-      </c>
-      <c r="E115" t="n">
-        <v>3</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.08</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="116">
@@ -21208,34 +20612,28 @@
           <t>Samoa</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>87</v>
-      </c>
-      <c r="E116" t="n">
-        <v>87</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.64</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H116" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="117">
@@ -21252,34 +20650,28 @@
           <t>San Marino</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>57</v>
-      </c>
-      <c r="E117" t="n">
-        <v>53</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.62</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H117" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="118">
@@ -21296,30 +20688,24 @@
           <t>Sao Tome and Principe</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>86</v>
-      </c>
-      <c r="E118" t="n">
-        <v>80</v>
-      </c>
-      <c r="F118" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr">
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>Gavi</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H118" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="119">
@@ -21336,31 +20722,27 @@
           <t>Saudi Arabia</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="n">
-        <v>0.5</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2 doses (12 months)</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2 doses (12 months)</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -21376,30 +20758,28 @@
           <t>Senegal</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="n">
-        <v>0.66</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H120" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="121">
@@ -21416,30 +20796,24 @@
           <t>Serbia</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>2</v>
-      </c>
-      <c r="E121" t="n">
-        <v>2</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="122">
@@ -21456,34 +20830,28 @@
           <t>Seychelles</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>96</v>
-      </c>
-      <c r="E122" t="n">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
         <v>23</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="123">
@@ -21501,25 +20869,23 @@
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>Gavi</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H123" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="124">
@@ -21536,34 +20902,28 @@
           <t>Singapore</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>73</v>
-      </c>
-      <c r="E124" t="n">
-        <v>68</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.78</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H124" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="125">
@@ -21580,30 +20940,24 @@
           <t>Slovakia</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>33</v>
-      </c>
-      <c r="E125" t="n">
-        <v>29</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
         <is>
           <t>2 doses (6 months)</t>
         </is>
       </c>
-      <c r="I125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H125" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="126">
@@ -21620,34 +20974,28 @@
           <t>Slovenia</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>61</v>
-      </c>
-      <c r="E126" t="n">
-        <v>61</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.43</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H126" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="127">
@@ -21664,34 +21012,28 @@
           <t>Solomon Islands</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>51</v>
-      </c>
-      <c r="E127" t="n">
-        <v>51</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.78</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H127" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="128">
@@ -21708,34 +21050,28 @@
           <t>South Africa</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>49</v>
-      </c>
-      <c r="E128" t="n">
-        <v>44</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.79</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H128" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="129">
@@ -21752,34 +21088,28 @@
           <t>Spain</t>
         </is>
       </c>
-      <c r="D129" t="n">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
         <v>90</v>
-      </c>
-      <c r="E129" t="n">
-        <v>85</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="130">
@@ -21796,34 +21126,28 @@
           <t>Sri Lanka</t>
         </is>
       </c>
-      <c r="D130" t="n">
-        <v>95</v>
-      </c>
-      <c r="E130" t="n">
-        <v>74</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.48</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H130" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="131">
@@ -21840,34 +21164,28 @@
           <t>Suriname</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>68</v>
-      </c>
-      <c r="E131" t="n">
-        <v>55</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.13</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H131" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="132">
@@ -21884,34 +21202,28 @@
           <t>Sweden</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>91</v>
-      </c>
-      <c r="E132" t="n">
-        <v>86</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.91</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H132" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="133">
@@ -21928,34 +21240,28 @@
           <t>Switzerland</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>78</v>
-      </c>
-      <c r="E133" t="n">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
         <v>70</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="134">
@@ -21972,29 +21278,27 @@
           <t>Tajikistan</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
+      </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -22010,34 +21314,28 @@
           <t>Thailand</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>61</v>
-      </c>
-      <c r="E135" t="n">
-        <v>32</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.57</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H135" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="136">
@@ -22054,30 +21352,28 @@
           <t>Timor-Leste</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="n">
-        <v>0.99</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H136" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="137">
@@ -22094,34 +21390,28 @@
           <t>Togo</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>45</v>
-      </c>
-      <c r="E137" t="n">
-        <v>45</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.36</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H137" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="138">
@@ -22138,30 +21428,24 @@
           <t>Tonga</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>39</v>
-      </c>
-      <c r="E138" t="n">
-        <v>39</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr">
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H138" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="139">
@@ -22178,34 +21462,28 @@
           <t>Trinidad and Tobago</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>43</v>
-      </c>
-      <c r="E139" t="n">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
         <v>16</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="140">
@@ -22223,24 +21501,22 @@
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>Not yet introduced</t>
         </is>
       </c>
-      <c r="I140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -22256,34 +21532,28 @@
           <t>Turkmenistan</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>98</v>
-      </c>
-      <c r="E141" t="n">
-        <v>97</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0.97</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H141" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="142">
@@ -22301,25 +21571,23 @@
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>1 dose</t>
         </is>
       </c>
-      <c r="I142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H142" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="143">
@@ -22336,34 +21604,28 @@
           <t>Uganda</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>99</v>
-      </c>
-      <c r="E143" t="n">
-        <v>66</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0.95</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H143" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="144">
@@ -22381,24 +21643,22 @@
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>Not yet introduced</t>
         </is>
       </c>
-      <c r="I144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>Non-Gavi</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22414,34 +21674,28 @@
           <t>United Arab Emirates</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>40</v>
-      </c>
-      <c r="E145" t="n">
-        <v>37</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0.51</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H145" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="146">
@@ -22458,34 +21712,28 @@
           <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>78</v>
-      </c>
-      <c r="E146" t="n">
-        <v>78</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0.75</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H146" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="147">
@@ -22502,34 +21750,28 @@
           <t>United Republic of Tanzania</t>
         </is>
       </c>
-      <c r="D147" t="n">
-        <v>99</v>
-      </c>
-      <c r="E147" t="n">
-        <v>99</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0.9399999999999999</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H147" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="148">
@@ -22546,34 +21788,28 @@
           <t>United States of America</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>77</v>
-      </c>
-      <c r="E148" t="n">
-        <v>65</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0.74</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H148" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="149">
@@ -22590,34 +21826,28 @@
           <t>Uruguay</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>74</v>
-      </c>
-      <c r="E149" t="n">
-        <v>53</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0.77</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Facility-based</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2 doses (6 months)</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Facility-based</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2 doses (6 months)</t>
-        </is>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H149" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="150">
@@ -22634,32 +21864,28 @@
           <t>Uzbekistan</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
         <v>99</v>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
       </c>
     </row>
     <row r="151">
@@ -22676,30 +21902,28 @@
           <t>Vanuatu</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="n">
-        <v>0.43</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Non-Gavi</t>
+        </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>Non-Gavi</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H151" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="152">
@@ -22716,34 +21940,28 @@
           <t>Zambia</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>12</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0.6</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>School-based</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>1 dose</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>School-based</t>
-        </is>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>1 dose</t>
-        </is>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H152" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="153">
@@ -22760,34 +21978,28 @@
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>88</v>
-      </c>
-      <c r="E153" t="n">
-        <v>39</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0.8</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>mixed</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2 doses (12 months)</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Gavi</t>
+        </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>mixed</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2 doses (12 months)</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>Gavi</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="H153" t="n">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
+++ b/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
@@ -16292,7 +16292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H153"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16338,6 +16338,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>FIRST_DOSE_COV</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>LAST_DOSE_COV</t>
         </is>
       </c>
@@ -16379,6 +16384,9 @@
       <c r="H2" t="n">
         <v>43</v>
       </c>
+      <c r="I2" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16415,6 +16423,9 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>92</v>
+      </c>
+      <c r="I3" t="n">
         <v>82</v>
       </c>
     </row>
@@ -16453,6 +16464,9 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16493,6 +16507,9 @@
       <c r="H5" t="n">
         <v>55</v>
       </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16529,6 +16546,9 @@
         </is>
       </c>
       <c r="H6" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" t="n">
         <v>31</v>
       </c>
     </row>
@@ -16569,6 +16589,9 @@
       <c r="H7" t="n">
         <v>73</v>
       </c>
+      <c r="I7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16605,6 +16628,9 @@
         </is>
       </c>
       <c r="H8" t="n">
+        <v>53</v>
+      </c>
+      <c r="I8" t="n">
         <v>31</v>
       </c>
     </row>
@@ -16639,6 +16665,7 @@
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16671,6 +16698,9 @@
         </is>
       </c>
       <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -16704,7 +16734,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>74</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16739,6 +16772,9 @@
       <c r="H12" t="n">
         <v>90</v>
       </c>
+      <c r="I12" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16777,6 +16813,9 @@
       <c r="H13" t="n">
         <v>43</v>
       </c>
+      <c r="I13" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -16813,6 +16852,7 @@
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16849,6 +16889,9 @@
         </is>
       </c>
       <c r="H15" t="n">
+        <v>80</v>
+      </c>
+      <c r="I15" t="n">
         <v>72</v>
       </c>
     </row>
@@ -16889,6 +16932,9 @@
       <c r="H16" t="n">
         <v>62</v>
       </c>
+      <c r="I16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -16925,6 +16971,9 @@
         </is>
       </c>
       <c r="H17" t="n">
+        <v>94</v>
+      </c>
+      <c r="I17" t="n">
         <v>92</v>
       </c>
     </row>
@@ -16965,6 +17014,9 @@
       <c r="H18" t="n">
         <v>78</v>
       </c>
+      <c r="I18" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17001,6 +17053,9 @@
         </is>
       </c>
       <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17039,6 +17094,9 @@
         </is>
       </c>
       <c r="H20" t="n">
+        <v>93</v>
+      </c>
+      <c r="I20" t="n">
         <v>34</v>
       </c>
     </row>
@@ -17079,6 +17137,9 @@
       <c r="H21" t="n">
         <v>79</v>
       </c>
+      <c r="I21" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17115,6 +17176,9 @@
         </is>
       </c>
       <c r="H22" t="n">
+        <v>92</v>
+      </c>
+      <c r="I22" t="n">
         <v>88</v>
       </c>
     </row>
@@ -17153,6 +17217,9 @@
         </is>
       </c>
       <c r="H23" t="n">
+        <v>11</v>
+      </c>
+      <c r="I23" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17193,6 +17260,9 @@
       <c r="H24" t="n">
         <v>99</v>
       </c>
+      <c r="I24" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17227,6 +17297,9 @@
       <c r="H25" t="n">
         <v>99</v>
       </c>
+      <c r="I25" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17261,6 +17334,9 @@
       <c r="H26" t="n">
         <v>85</v>
       </c>
+      <c r="I26" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17299,6 +17375,9 @@
       <c r="H27" t="n">
         <v>36</v>
       </c>
+      <c r="I27" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17337,6 +17416,9 @@
       <c r="H28" t="n">
         <v>86</v>
       </c>
+      <c r="I28" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17373,6 +17455,9 @@
         </is>
       </c>
       <c r="H29" t="n">
+        <v>94</v>
+      </c>
+      <c r="I29" t="n">
         <v>87</v>
       </c>
     </row>
@@ -17413,6 +17498,9 @@
       <c r="H30" t="n">
         <v>60</v>
       </c>
+      <c r="I30" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -17449,6 +17537,9 @@
         </is>
       </c>
       <c r="H31" t="n">
+        <v>77</v>
+      </c>
+      <c r="I31" t="n">
         <v>37</v>
       </c>
     </row>
@@ -17487,6 +17578,9 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>92</v>
+      </c>
+      <c r="I32" t="n">
         <v>84</v>
       </c>
     </row>
@@ -17527,6 +17621,9 @@
       <c r="H33" t="n">
         <v>61</v>
       </c>
+      <c r="I33" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -17565,6 +17662,9 @@
       <c r="H34" t="n">
         <v>53</v>
       </c>
+      <c r="I34" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -17601,6 +17701,9 @@
         </is>
       </c>
       <c r="H35" t="n">
+        <v>83</v>
+      </c>
+      <c r="I35" t="n">
         <v>89</v>
       </c>
     </row>
@@ -17641,6 +17744,9 @@
       <c r="H36" t="n">
         <v>75</v>
       </c>
+      <c r="I36" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -17677,6 +17783,9 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>89</v>
+      </c>
+      <c r="I37" t="n">
         <v>81</v>
       </c>
     </row>
@@ -17717,6 +17826,9 @@
       <c r="H38" t="n">
         <v>77</v>
       </c>
+      <c r="I38" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -17755,6 +17867,9 @@
       <c r="H39" t="n">
         <v>45</v>
       </c>
+      <c r="I39" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -17793,6 +17908,9 @@
       <c r="H40" t="n">
         <v>89</v>
       </c>
+      <c r="I40" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -17831,6 +17949,9 @@
       <c r="H41" t="n">
         <v>86</v>
       </c>
+      <c r="I41" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17863,6 +17984,9 @@
         </is>
       </c>
       <c r="H42" t="n">
+        <v>68</v>
+      </c>
+      <c r="I42" t="n">
         <v>49</v>
       </c>
     </row>
@@ -17903,6 +18027,9 @@
       <c r="H43" t="n">
         <v>63</v>
       </c>
+      <c r="I43" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -17941,6 +18068,9 @@
       <c r="H44" t="n">
         <v>30</v>
       </c>
+      <c r="I44" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -17979,6 +18109,9 @@
       <c r="H45" t="n">
         <v>58</v>
       </c>
+      <c r="I45" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18015,6 +18148,9 @@
         </is>
       </c>
       <c r="H46" t="n">
+        <v>89</v>
+      </c>
+      <c r="I46" t="n">
         <v>71</v>
       </c>
     </row>
@@ -18053,6 +18189,9 @@
         </is>
       </c>
       <c r="H47" t="n">
+        <v>71</v>
+      </c>
+      <c r="I47" t="n">
         <v>62</v>
       </c>
     </row>
@@ -18091,6 +18230,9 @@
         </is>
       </c>
       <c r="H48" t="n">
+        <v>48</v>
+      </c>
+      <c r="I48" t="n">
         <v>45</v>
       </c>
     </row>
@@ -18131,6 +18273,9 @@
       <c r="H49" t="n">
         <v>15</v>
       </c>
+      <c r="I49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18167,6 +18312,9 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>32</v>
+      </c>
+      <c r="I50" t="n">
         <v>29</v>
       </c>
     </row>
@@ -18205,6 +18353,9 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>68</v>
+      </c>
+      <c r="I51" t="n">
         <v>55</v>
       </c>
     </row>
@@ -18243,6 +18394,7 @@
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -18281,6 +18433,9 @@
       <c r="H53" t="n">
         <v>5</v>
       </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -18319,6 +18474,9 @@
       <c r="H54" t="n">
         <v>57</v>
       </c>
+      <c r="I54" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -18357,6 +18515,9 @@
       <c r="H55" t="n">
         <v>71</v>
       </c>
+      <c r="I55" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -18395,6 +18556,9 @@
       <c r="H56" t="n">
         <v>72</v>
       </c>
+      <c r="I56" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -18431,6 +18595,9 @@
         </is>
       </c>
       <c r="H57" t="n">
+        <v>77</v>
+      </c>
+      <c r="I57" t="n">
         <v>75</v>
       </c>
     </row>
@@ -18469,6 +18636,9 @@
         </is>
       </c>
       <c r="H58" t="n">
+        <v>93</v>
+      </c>
+      <c r="I58" t="n">
         <v>89</v>
       </c>
     </row>
@@ -18507,6 +18677,9 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>80</v>
+      </c>
+      <c r="I59" t="n">
         <v>79</v>
       </c>
     </row>
@@ -18547,6 +18720,9 @@
       <c r="H60" t="n">
         <v>73</v>
       </c>
+      <c r="I60" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -18583,6 +18759,9 @@
         </is>
       </c>
       <c r="H61" t="n">
+        <v>51</v>
+      </c>
+      <c r="I61" t="n">
         <v>58</v>
       </c>
     </row>
@@ -18621,6 +18800,9 @@
         </is>
       </c>
       <c r="H62" t="n">
+        <v>66</v>
+      </c>
+      <c r="I62" t="n">
         <v>51</v>
       </c>
     </row>
@@ -18661,6 +18843,9 @@
       <c r="H63" t="n">
         <v>7</v>
       </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -18697,6 +18882,9 @@
         </is>
       </c>
       <c r="H64" t="n">
+        <v>39</v>
+      </c>
+      <c r="I64" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18734,7 +18922,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>38</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18771,6 +18962,9 @@
         </is>
       </c>
       <c r="H66" t="n">
+        <v>79</v>
+      </c>
+      <c r="I66" t="n">
         <v>36</v>
       </c>
     </row>
@@ -18807,6 +19001,9 @@
       <c r="H67" t="n">
         <v>71</v>
       </c>
+      <c r="I67" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18843,6 +19040,7 @@
         </is>
       </c>
       <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18881,6 +19079,9 @@
       <c r="H69" t="n">
         <v>88</v>
       </c>
+      <c r="I69" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18919,6 +19120,9 @@
       <c r="H70" t="n">
         <v>95</v>
       </c>
+      <c r="I70" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18955,6 +19159,9 @@
         </is>
       </c>
       <c r="H71" t="n">
+        <v>64</v>
+      </c>
+      <c r="I71" t="n">
         <v>51</v>
       </c>
     </row>
@@ -18991,6 +19198,9 @@
       <c r="H72" t="n">
         <v>70</v>
       </c>
+      <c r="I72" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19027,6 +19237,9 @@
         </is>
       </c>
       <c r="H73" t="n">
+        <v>71</v>
+      </c>
+      <c r="I73" t="n">
         <v>71</v>
       </c>
     </row>
@@ -19057,6 +19270,9 @@
         </is>
       </c>
       <c r="H74" t="n">
+        <v>51</v>
+      </c>
+      <c r="I74" t="n">
         <v>28</v>
       </c>
     </row>
@@ -19095,6 +19311,9 @@
         </is>
       </c>
       <c r="H75" t="n">
+        <v>57</v>
+      </c>
+      <c r="I75" t="n">
         <v>59</v>
       </c>
     </row>
@@ -19133,6 +19352,9 @@
         </is>
       </c>
       <c r="H76" t="n">
+        <v>87</v>
+      </c>
+      <c r="I76" t="n">
         <v>79</v>
       </c>
     </row>
@@ -19171,6 +19393,9 @@
         </is>
       </c>
       <c r="H77" t="n">
+        <v>54</v>
+      </c>
+      <c r="I77" t="n">
         <v>21</v>
       </c>
     </row>
@@ -19211,6 +19436,9 @@
       <c r="H78" t="n">
         <v>78</v>
       </c>
+      <c r="I78" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19247,6 +19475,9 @@
         </is>
       </c>
       <c r="H79" t="n">
+        <v>75</v>
+      </c>
+      <c r="I79" t="n">
         <v>55</v>
       </c>
     </row>
@@ -19287,6 +19518,9 @@
       <c r="H80" t="n">
         <v>15</v>
       </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -19323,6 +19557,9 @@
         </is>
       </c>
       <c r="H81" t="n">
+        <v>86</v>
+      </c>
+      <c r="I81" t="n">
         <v>80</v>
       </c>
     </row>
@@ -19361,6 +19598,9 @@
         </is>
       </c>
       <c r="H82" t="n">
+        <v>70</v>
+      </c>
+      <c r="I82" t="n">
         <v>50</v>
       </c>
     </row>
@@ -19401,6 +19641,9 @@
       <c r="H83" t="n">
         <v>51</v>
       </c>
+      <c r="I83" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19439,6 +19682,9 @@
       <c r="H84" t="n">
         <v>92</v>
       </c>
+      <c r="I84" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19477,6 +19723,9 @@
       <c r="H85" t="n">
         <v>82</v>
       </c>
+      <c r="I85" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19513,6 +19762,9 @@
         </is>
       </c>
       <c r="H86" t="n">
+        <v>70</v>
+      </c>
+      <c r="I86" t="n">
         <v>40</v>
       </c>
     </row>
@@ -19550,7 +19802,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>16</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19589,6 +19844,9 @@
       <c r="H88" t="n">
         <v>25</v>
       </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19627,6 +19885,9 @@
       <c r="H89" t="n">
         <v>5</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19661,6 +19922,9 @@
       <c r="H90" t="n">
         <v>3</v>
       </c>
+      <c r="I90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19699,6 +19963,9 @@
       <c r="H91" t="n">
         <v>89</v>
       </c>
+      <c r="I91" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19737,6 +20004,9 @@
       <c r="H92" t="n">
         <v>83</v>
       </c>
+      <c r="I92" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19769,6 +20039,9 @@
         </is>
       </c>
       <c r="H93" t="n">
+        <v>23</v>
+      </c>
+      <c r="I93" t="n">
         <v>6</v>
       </c>
     </row>
@@ -19809,6 +20082,9 @@
       <c r="H94" t="n">
         <v>63</v>
       </c>
+      <c r="I94" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19845,6 +20121,9 @@
         </is>
       </c>
       <c r="H95" t="n">
+        <v>53</v>
+      </c>
+      <c r="I95" t="n">
         <v>52</v>
       </c>
     </row>
@@ -19885,6 +20164,9 @@
       <c r="H96" t="n">
         <v>60</v>
       </c>
+      <c r="I96" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -19923,6 +20205,9 @@
       <c r="H97" t="n">
         <v>99</v>
       </c>
+      <c r="I97" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -19959,6 +20244,9 @@
         </is>
       </c>
       <c r="H98" t="n">
+        <v>58</v>
+      </c>
+      <c r="I98" t="n">
         <v>40</v>
       </c>
     </row>
@@ -19997,6 +20285,9 @@
         </is>
       </c>
       <c r="H99" t="n">
+        <v>93</v>
+      </c>
+      <c r="I99" t="n">
         <v>91</v>
       </c>
     </row>
@@ -20035,6 +20326,9 @@
         </is>
       </c>
       <c r="H100" t="n">
+        <v>58</v>
+      </c>
+      <c r="I100" t="n">
         <v>43</v>
       </c>
     </row>
@@ -20073,6 +20367,9 @@
         </is>
       </c>
       <c r="H101" t="n">
+        <v>71</v>
+      </c>
+      <c r="I101" t="n">
         <v>54</v>
       </c>
     </row>
@@ -20113,6 +20410,9 @@
       <c r="H102" t="n">
         <v>47</v>
       </c>
+      <c r="I102" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -20151,6 +20451,9 @@
       <c r="H103" t="n">
         <v>97</v>
       </c>
+      <c r="I103" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -20187,6 +20490,9 @@
         </is>
       </c>
       <c r="H104" t="n">
+        <v>50</v>
+      </c>
+      <c r="I104" t="n">
         <v>5</v>
       </c>
     </row>
@@ -20225,6 +20531,9 @@
         </is>
       </c>
       <c r="H105" t="n">
+        <v>10</v>
+      </c>
+      <c r="I105" t="n">
         <v>13</v>
       </c>
     </row>
@@ -20263,6 +20572,9 @@
         </is>
       </c>
       <c r="H106" t="n">
+        <v>91</v>
+      </c>
+      <c r="I106" t="n">
         <v>92</v>
       </c>
     </row>
@@ -20297,6 +20609,9 @@
         </is>
       </c>
       <c r="H107" t="n">
+        <v>4</v>
+      </c>
+      <c r="I107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20335,6 +20650,9 @@
         </is>
       </c>
       <c r="H108" t="n">
+        <v>85</v>
+      </c>
+      <c r="I108" t="n">
         <v>69</v>
       </c>
     </row>
@@ -20373,6 +20691,9 @@
         </is>
       </c>
       <c r="H109" t="n">
+        <v>52</v>
+      </c>
+      <c r="I109" t="n">
         <v>42</v>
       </c>
     </row>
@@ -20411,6 +20732,9 @@
         </is>
       </c>
       <c r="H110" t="n">
+        <v>18</v>
+      </c>
+      <c r="I110" t="n">
         <v>17</v>
       </c>
     </row>
@@ -20445,6 +20769,7 @@
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -20481,6 +20806,9 @@
         </is>
       </c>
       <c r="H112" t="n">
+        <v>77</v>
+      </c>
+      <c r="I112" t="n">
         <v>69</v>
       </c>
     </row>
@@ -20521,6 +20849,9 @@
       <c r="H113" t="n">
         <v>78</v>
       </c>
+      <c r="I113" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -20559,6 +20890,9 @@
       <c r="H114" t="n">
         <v>71</v>
       </c>
+      <c r="I114" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -20597,6 +20931,9 @@
       <c r="H115" t="n">
         <v>8</v>
       </c>
+      <c r="I115" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -20635,6 +20972,9 @@
       <c r="H116" t="n">
         <v>64</v>
       </c>
+      <c r="I116" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -20671,6 +21011,9 @@
         </is>
       </c>
       <c r="H117" t="n">
+        <v>62</v>
+      </c>
+      <c r="I117" t="n">
         <v>56</v>
       </c>
     </row>
@@ -20707,6 +21050,9 @@
       <c r="H118" t="n">
         <v>75</v>
       </c>
+      <c r="I118" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -20742,7 +21088,10 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>50</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -20779,6 +21128,9 @@
         </is>
       </c>
       <c r="H120" t="n">
+        <v>66</v>
+      </c>
+      <c r="I120" t="n">
         <v>51</v>
       </c>
     </row>
@@ -20815,6 +21167,9 @@
       <c r="H121" t="n">
         <v>4</v>
       </c>
+      <c r="I121" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -20851,6 +21206,9 @@
         </is>
       </c>
       <c r="H122" t="n">
+        <v>71</v>
+      </c>
+      <c r="I122" t="n">
         <v>23</v>
       </c>
     </row>
@@ -20887,6 +21245,9 @@
       <c r="H123" t="n">
         <v>61</v>
       </c>
+      <c r="I123" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -20923,6 +21284,9 @@
         </is>
       </c>
       <c r="H124" t="n">
+        <v>78</v>
+      </c>
+      <c r="I124" t="n">
         <v>70</v>
       </c>
     </row>
@@ -20957,6 +21321,9 @@
         </is>
       </c>
       <c r="H125" t="n">
+        <v>36</v>
+      </c>
+      <c r="I125" t="n">
         <v>24</v>
       </c>
     </row>
@@ -20997,6 +21364,9 @@
       <c r="H126" t="n">
         <v>43</v>
       </c>
+      <c r="I126" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -21035,6 +21405,9 @@
       <c r="H127" t="n">
         <v>78</v>
       </c>
+      <c r="I127" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -21073,6 +21446,9 @@
       <c r="H128" t="n">
         <v>79</v>
       </c>
+      <c r="I128" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -21111,6 +21487,9 @@
       <c r="H129" t="n">
         <v>90</v>
       </c>
+      <c r="I129" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -21147,6 +21526,9 @@
         </is>
       </c>
       <c r="H130" t="n">
+        <v>48</v>
+      </c>
+      <c r="I130" t="n">
         <v>12</v>
       </c>
     </row>
@@ -21187,6 +21569,9 @@
       <c r="H131" t="n">
         <v>13</v>
       </c>
+      <c r="I131" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -21223,6 +21608,9 @@
         </is>
       </c>
       <c r="H132" t="n">
+        <v>91</v>
+      </c>
+      <c r="I132" t="n">
         <v>87</v>
       </c>
     </row>
@@ -21261,6 +21649,9 @@
         </is>
       </c>
       <c r="H133" t="n">
+        <v>78</v>
+      </c>
+      <c r="I133" t="n">
         <v>70</v>
       </c>
     </row>
@@ -21299,6 +21690,7 @@
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21335,6 +21727,9 @@
         </is>
       </c>
       <c r="H135" t="n">
+        <v>57</v>
+      </c>
+      <c r="I135" t="n">
         <v>36</v>
       </c>
     </row>
@@ -21375,6 +21770,9 @@
       <c r="H136" t="n">
         <v>99</v>
       </c>
+      <c r="I136" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -21413,6 +21811,9 @@
       <c r="H137" t="n">
         <v>36</v>
       </c>
+      <c r="I137" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21447,6 +21848,9 @@
       <c r="H138" t="n">
         <v>67</v>
       </c>
+      <c r="I138" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21483,6 +21887,9 @@
         </is>
       </c>
       <c r="H139" t="n">
+        <v>38</v>
+      </c>
+      <c r="I139" t="n">
         <v>16</v>
       </c>
     </row>
@@ -21517,6 +21924,7 @@
         </is>
       </c>
       <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21553,6 +21961,9 @@
         </is>
       </c>
       <c r="H141" t="n">
+        <v>97</v>
+      </c>
+      <c r="I141" t="n">
         <v>99</v>
       </c>
     </row>
@@ -21589,6 +22000,9 @@
       <c r="H142" t="n">
         <v>70</v>
       </c>
+      <c r="I142" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -21627,6 +22041,9 @@
       <c r="H143" t="n">
         <v>95</v>
       </c>
+      <c r="I143" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -21659,6 +22076,7 @@
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -21695,6 +22113,9 @@
         </is>
       </c>
       <c r="H145" t="n">
+        <v>51</v>
+      </c>
+      <c r="I145" t="n">
         <v>46</v>
       </c>
     </row>
@@ -21735,6 +22156,9 @@
       <c r="H146" t="n">
         <v>75</v>
       </c>
+      <c r="I146" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -21773,6 +22197,9 @@
       <c r="H147" t="n">
         <v>94</v>
       </c>
+      <c r="I147" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -21809,6 +22236,9 @@
         </is>
       </c>
       <c r="H148" t="n">
+        <v>74</v>
+      </c>
+      <c r="I148" t="n">
         <v>52</v>
       </c>
     </row>
@@ -21847,6 +22277,9 @@
         </is>
       </c>
       <c r="H149" t="n">
+        <v>77</v>
+      </c>
+      <c r="I149" t="n">
         <v>54</v>
       </c>
     </row>
@@ -21885,6 +22318,9 @@
         </is>
       </c>
       <c r="H150" t="n">
+        <v>91</v>
+      </c>
+      <c r="I150" t="n">
         <v>99</v>
       </c>
     </row>
@@ -21925,6 +22361,9 @@
       <c r="H151" t="n">
         <v>43</v>
       </c>
+      <c r="I151" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -21963,6 +22402,9 @@
       <c r="H152" t="n">
         <v>60</v>
       </c>
+      <c r="I152" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -21999,6 +22441,9 @@
         </is>
       </c>
       <c r="H153" t="n">
+        <v>80</v>
+      </c>
+      <c r="I153" t="n">
         <v>51</v>
       </c>
     </row>

--- a/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
+++ b/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
@@ -16292,7 +16292,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:J153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16346,6 +16346,11 @@
           <t>LAST_DOSE_COV</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>income_class</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16387,6 +16392,11 @@
       <c r="I2" t="n">
         <v>43</v>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16428,6 +16438,11 @@
       <c r="I3" t="n">
         <v>82</v>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16469,6 +16484,11 @@
       <c r="I4" t="n">
         <v>1</v>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16510,6 +16530,11 @@
       <c r="I5" t="n">
         <v>55</v>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16551,6 +16576,11 @@
       <c r="I6" t="n">
         <v>31</v>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -16592,6 +16622,11 @@
       <c r="I7" t="n">
         <v>73</v>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -16633,6 +16668,11 @@
       <c r="I8" t="n">
         <v>31</v>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -16666,6 +16706,11 @@
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -16703,6 +16748,11 @@
       <c r="I10" t="n">
         <v>3</v>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -16738,6 +16788,11 @@
         <v>74</v>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -16775,6 +16830,11 @@
       <c r="I12" t="n">
         <v>90</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -16816,6 +16876,11 @@
       <c r="I13" t="n">
         <v>43</v>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -16853,6 +16918,11 @@
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -16894,6 +16964,11 @@
       <c r="I15" t="n">
         <v>72</v>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -16935,6 +17010,11 @@
       <c r="I16" t="n">
         <v>62</v>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -16976,6 +17056,11 @@
       <c r="I17" t="n">
         <v>92</v>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -17017,6 +17102,11 @@
       <c r="I18" t="n">
         <v>78</v>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17058,6 +17148,11 @@
       <c r="I19" t="n">
         <v>9</v>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17099,6 +17194,11 @@
       <c r="I20" t="n">
         <v>34</v>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17140,6 +17240,11 @@
       <c r="I21" t="n">
         <v>79</v>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17181,6 +17286,11 @@
       <c r="I22" t="n">
         <v>88</v>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -17222,6 +17332,11 @@
       <c r="I23" t="n">
         <v>9</v>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -17263,6 +17378,11 @@
       <c r="I24" t="n">
         <v>99</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -17300,6 +17420,11 @@
       <c r="I25" t="n">
         <v>99</v>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -17337,6 +17462,11 @@
       <c r="I26" t="n">
         <v>85</v>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -17378,6 +17508,11 @@
       <c r="I27" t="n">
         <v>36</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -17419,6 +17554,11 @@
       <c r="I28" t="n">
         <v>86</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -17460,6 +17600,11 @@
       <c r="I29" t="n">
         <v>87</v>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -17501,6 +17646,11 @@
       <c r="I30" t="n">
         <v>60</v>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -17542,6 +17692,7 @@
       <c r="I31" t="n">
         <v>37</v>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -17583,6 +17734,11 @@
       <c r="I32" t="n">
         <v>84</v>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -17624,6 +17780,11 @@
       <c r="I33" t="n">
         <v>61</v>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -17665,6 +17826,11 @@
       <c r="I34" t="n">
         <v>53</v>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -17706,6 +17872,11 @@
       <c r="I35" t="n">
         <v>89</v>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -17747,6 +17918,11 @@
       <c r="I36" t="n">
         <v>75</v>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -17788,6 +17964,11 @@
       <c r="I37" t="n">
         <v>81</v>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -17829,6 +18010,11 @@
       <c r="I38" t="n">
         <v>77</v>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -17870,6 +18056,11 @@
       <c r="I39" t="n">
         <v>45</v>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -17911,6 +18102,11 @@
       <c r="I40" t="n">
         <v>89</v>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -17952,6 +18148,11 @@
       <c r="I41" t="n">
         <v>86</v>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -17989,6 +18190,11 @@
       <c r="I42" t="n">
         <v>49</v>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -18030,6 +18236,11 @@
       <c r="I43" t="n">
         <v>63</v>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -18071,6 +18282,11 @@
       <c r="I44" t="n">
         <v>30</v>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -18112,6 +18328,11 @@
       <c r="I45" t="n">
         <v>58</v>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -18153,6 +18374,11 @@
       <c r="I46" t="n">
         <v>71</v>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -18194,6 +18420,11 @@
       <c r="I47" t="n">
         <v>62</v>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -18235,6 +18466,11 @@
       <c r="I48" t="n">
         <v>45</v>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -18276,6 +18512,11 @@
       <c r="I49" t="n">
         <v>15</v>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -18317,6 +18558,11 @@
       <c r="I50" t="n">
         <v>29</v>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -18358,6 +18604,11 @@
       <c r="I51" t="n">
         <v>55</v>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -18395,6 +18646,11 @@
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -18436,6 +18692,11 @@
       <c r="I53" t="n">
         <v>5</v>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -18477,6 +18738,11 @@
       <c r="I54" t="n">
         <v>57</v>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -18518,6 +18784,11 @@
       <c r="I55" t="n">
         <v>71</v>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -18559,6 +18830,11 @@
       <c r="I56" t="n">
         <v>72</v>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -18600,6 +18876,11 @@
       <c r="I57" t="n">
         <v>75</v>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -18641,6 +18922,11 @@
       <c r="I58" t="n">
         <v>89</v>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -18682,6 +18968,11 @@
       <c r="I59" t="n">
         <v>79</v>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -18723,6 +19014,11 @@
       <c r="I60" t="n">
         <v>73</v>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -18764,6 +19060,11 @@
       <c r="I61" t="n">
         <v>58</v>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -18805,6 +19106,11 @@
       <c r="I62" t="n">
         <v>51</v>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -18846,6 +19152,11 @@
       <c r="I63" t="n">
         <v>7</v>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -18887,6 +19198,11 @@
       <c r="I64" t="n">
         <v>17</v>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -18926,6 +19242,11 @@
         <v>38</v>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18967,6 +19288,11 @@
       <c r="I66" t="n">
         <v>36</v>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -19004,6 +19330,11 @@
       <c r="I67" t="n">
         <v>71</v>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -19041,6 +19372,11 @@
       </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19082,6 +19418,11 @@
       <c r="I69" t="n">
         <v>88</v>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -19123,6 +19464,11 @@
       <c r="I70" t="n">
         <v>95</v>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -19164,6 +19510,11 @@
       <c r="I71" t="n">
         <v>51</v>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19201,6 +19552,11 @@
       <c r="I72" t="n">
         <v>70</v>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -19241,6 +19597,11 @@
       </c>
       <c r="I73" t="n">
         <v>71</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -19275,6 +19636,11 @@
       <c r="I74" t="n">
         <v>28</v>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19316,6 +19682,11 @@
       <c r="I75" t="n">
         <v>59</v>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19357,6 +19728,11 @@
       <c r="I76" t="n">
         <v>79</v>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19398,6 +19774,11 @@
       <c r="I77" t="n">
         <v>21</v>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19439,6 +19820,11 @@
       <c r="I78" t="n">
         <v>78</v>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -19480,6 +19866,11 @@
       <c r="I79" t="n">
         <v>55</v>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -19521,6 +19912,11 @@
       <c r="I80" t="n">
         <v>15</v>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -19562,6 +19958,11 @@
       <c r="I81" t="n">
         <v>80</v>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -19603,6 +20004,11 @@
       <c r="I82" t="n">
         <v>50</v>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -19644,6 +20050,11 @@
       <c r="I83" t="n">
         <v>51</v>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -19685,6 +20096,11 @@
       <c r="I84" t="n">
         <v>92</v>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -19726,6 +20142,11 @@
       <c r="I85" t="n">
         <v>82</v>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -19767,6 +20188,11 @@
       <c r="I86" t="n">
         <v>40</v>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -19806,6 +20232,11 @@
         <v>16</v>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -19847,6 +20278,11 @@
       <c r="I88" t="n">
         <v>25</v>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19888,6 +20324,11 @@
       <c r="I89" t="n">
         <v>5</v>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19925,6 +20366,11 @@
       <c r="I90" t="n">
         <v>3</v>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19966,6 +20412,11 @@
       <c r="I91" t="n">
         <v>89</v>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -20007,6 +20458,11 @@
       <c r="I92" t="n">
         <v>83</v>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -20044,6 +20500,11 @@
       <c r="I93" t="n">
         <v>6</v>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20085,6 +20546,11 @@
       <c r="I94" t="n">
         <v>63</v>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20126,6 +20592,11 @@
       <c r="I95" t="n">
         <v>52</v>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20167,6 +20638,11 @@
       <c r="I96" t="n">
         <v>60</v>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20208,6 +20684,7 @@
       <c r="I97" t="n">
         <v>99</v>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20249,6 +20726,11 @@
       <c r="I98" t="n">
         <v>40</v>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20290,6 +20772,11 @@
       <c r="I99" t="n">
         <v>91</v>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20331,6 +20818,11 @@
       <c r="I100" t="n">
         <v>43</v>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20372,6 +20864,11 @@
       <c r="I101" t="n">
         <v>54</v>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -20413,6 +20910,11 @@
       <c r="I102" t="n">
         <v>47</v>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -20454,6 +20956,11 @@
       <c r="I103" t="n">
         <v>97</v>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -20495,6 +21002,11 @@
       <c r="I104" t="n">
         <v>5</v>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -20536,6 +21048,11 @@
       <c r="I105" t="n">
         <v>13</v>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -20577,6 +21094,11 @@
       <c r="I106" t="n">
         <v>92</v>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -20614,6 +21136,11 @@
       <c r="I107" t="n">
         <v>1</v>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -20655,6 +21182,11 @@
       <c r="I108" t="n">
         <v>69</v>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -20696,6 +21228,11 @@
       <c r="I109" t="n">
         <v>42</v>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -20737,6 +21274,11 @@
       <c r="I110" t="n">
         <v>17</v>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -20770,6 +21312,11 @@
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -20811,6 +21358,11 @@
       <c r="I112" t="n">
         <v>69</v>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -20852,6 +21404,11 @@
       <c r="I113" t="n">
         <v>78</v>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -20893,6 +21450,11 @@
       <c r="I114" t="n">
         <v>71</v>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -20934,6 +21496,11 @@
       <c r="I115" t="n">
         <v>8</v>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -20975,6 +21542,11 @@
       <c r="I116" t="n">
         <v>64</v>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -21016,6 +21588,11 @@
       <c r="I117" t="n">
         <v>56</v>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -21053,6 +21630,11 @@
       <c r="I118" t="n">
         <v>75</v>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -21092,6 +21674,11 @@
         <v>50</v>
       </c>
       <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -21133,6 +21720,11 @@
       <c r="I120" t="n">
         <v>51</v>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -21170,6 +21762,11 @@
       <c r="I121" t="n">
         <v>4</v>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -21211,6 +21808,11 @@
       <c r="I122" t="n">
         <v>23</v>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -21248,6 +21850,11 @@
       <c r="I123" t="n">
         <v>61</v>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -21289,6 +21896,11 @@
       <c r="I124" t="n">
         <v>70</v>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -21326,6 +21938,11 @@
       <c r="I125" t="n">
         <v>24</v>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -21367,6 +21984,11 @@
       <c r="I126" t="n">
         <v>43</v>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -21408,6 +22030,11 @@
       <c r="I127" t="n">
         <v>78</v>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -21449,6 +22076,11 @@
       <c r="I128" t="n">
         <v>79</v>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -21490,6 +22122,11 @@
       <c r="I129" t="n">
         <v>90</v>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -21531,6 +22168,11 @@
       <c r="I130" t="n">
         <v>12</v>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -21572,6 +22214,11 @@
       <c r="I131" t="n">
         <v>13</v>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -21613,6 +22260,11 @@
       <c r="I132" t="n">
         <v>87</v>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -21654,6 +22306,11 @@
       <c r="I133" t="n">
         <v>70</v>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -21691,6 +22348,11 @@
       </c>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -21732,6 +22394,11 @@
       <c r="I135" t="n">
         <v>36</v>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -21773,6 +22440,11 @@
       <c r="I136" t="n">
         <v>99</v>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -21814,6 +22486,11 @@
       <c r="I137" t="n">
         <v>36</v>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -21851,6 +22528,11 @@
       <c r="I138" t="n">
         <v>67</v>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -21892,6 +22574,11 @@
       <c r="I139" t="n">
         <v>16</v>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -21925,6 +22612,11 @@
       </c>
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -21966,6 +22658,11 @@
       <c r="I141" t="n">
         <v>99</v>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -22003,6 +22700,11 @@
       <c r="I142" t="n">
         <v>70</v>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -22044,6 +22746,11 @@
       <c r="I143" t="n">
         <v>95</v>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -22077,6 +22784,11 @@
       </c>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -22118,6 +22830,11 @@
       <c r="I145" t="n">
         <v>46</v>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -22159,6 +22876,11 @@
       <c r="I146" t="n">
         <v>75</v>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -22200,6 +22922,11 @@
       <c r="I147" t="n">
         <v>94</v>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -22241,6 +22968,11 @@
       <c r="I148" t="n">
         <v>52</v>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -22282,6 +23014,11 @@
       <c r="I149" t="n">
         <v>54</v>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -22323,6 +23060,11 @@
       <c r="I150" t="n">
         <v>99</v>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -22364,6 +23106,11 @@
       <c r="I151" t="n">
         <v>43</v>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -22405,6 +23152,11 @@
       <c r="I152" t="n">
         <v>60</v>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -22445,6 +23197,11 @@
       </c>
       <c r="I153" t="n">
         <v>51</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
+++ b/dat/Socio_Econ/02_cleaned_data/dl_project_section_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hpv_vax_2024" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="income_class_2024" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="gavi_country_2024" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="gavi_mktseg_vaxprice_2024" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hpv_vax_2024" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="income_class_2024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gavi_country_2024" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="gavi_mktseg_vaxprice_2024" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
